--- a/files/utils/BASE_FRAC_MOLAR_Liquid1.xlsx
+++ b/files/utils/BASE_FRAC_MOLAR_Liquid1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\pythonProject\CalculosFrequencia\filtercomp\files\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B90E5-7548-496A-B0E4-CE8A2B56734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9FF13-F5C1-4351-AA0E-EB0A5F393D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20994B5E-CD57-4B76-9F13-AB691988E7F0}"/>
   </bookViews>
@@ -812,7 +812,7 @@
   <dimension ref="A1:IP69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="XEH1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="XEH67" sqref="XEH67"/>
     </sheetView>
   </sheetViews>
